--- a/static/excel/Customers.xlsx
+++ b/static/excel/Customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -67,67 +67,136 @@
     <t>Piyanan onnork</t>
   </si>
   <si>
-    <t>าแากา</t>
+    <t>ฐิติพัฒน์ ชัยแก้ว</t>
+  </si>
+  <si>
+    <t>Rungravee</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>RealEstate</t>
   </si>
   <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Project Planning</t>
+  </si>
+  <si>
     <t>Anasara development</t>
   </si>
   <si>
-    <t>กนนก</t>
+    <t>Auto Transfer Service</t>
+  </si>
+  <si>
+    <t>Vn.stell</t>
+  </si>
+  <si>
+    <t>Test Co,.ltd</t>
   </si>
   <si>
     <t>0985858221</t>
   </si>
   <si>
-    <t>6869</t>
+    <t>0869129962</t>
+  </si>
+  <si>
+    <t>0874586669</t>
+  </si>
+  <si>
+    <t>024567899</t>
   </si>
   <si>
     <t>asr.officework@gmail.com</t>
   </si>
   <si>
-    <t>cbb</t>
+    <t>thitiphat.eng@gmail.com</t>
+  </si>
+  <si>
+    <t>fonzf16@gmail.com</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
   </si>
   <si>
     <t>koyotyboy1@gmail.com</t>
   </si>
   <si>
-    <t>wera.watcharapon@gmail.com</t>
+    <t>garfield00536@hotmail.com</t>
+  </si>
+  <si>
+    <t>tongta87@gmail.com</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>รับเหมาก่อสร้าง ต้องการนำโปรแกรมวางแผนงานมาใช้ด้วย</t>
+  </si>
+  <si>
     <t>Koy_Anasara</t>
   </si>
   <si>
+    <t>David Philva</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>🐥กุ๊ก🐣</t>
+  </si>
+  <si>
+    <t>5-11-2020</t>
+  </si>
+  <si>
+    <t>6-11-2020</t>
+  </si>
+  <si>
+    <t>9:48:8</t>
+  </si>
+  <si>
+    <t>14:21:55</t>
+  </si>
+  <si>
+    <t>2:30:59</t>
+  </si>
+  <si>
+    <t>15:39:5</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hnl90FN77MUMESRh7fupOFDgMPy5zZzcLfCt5ciEZOCd9e3YQaid7InJKZyN6KXRBPXp9dSFPaXN6</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h82Bp0NEsZx1_CUw7KgQYSkNMaXAIJ2FVB2YqKVleMHgGaXJKQTwvLgkMOCUCMHRJQG9_eF9dMS9X</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0htks5EQzpK0ROTAKghltUE3IJJSk5Yi0MNi8zdWxKfXdnf20SdyM2IThIISRnemUWcShid2wZcXwz</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hD2HcDFhSGx11GjLZjuhkSklfFXACNB1VDXpdLFIfEXlQegkZHC4AKQcYQH4PIllNHHRVKABNQi5a</t>
+  </si>
+  <si>
     <t>Kane</t>
   </si>
   <si>
-    <t>5-11-2020</t>
-  </si>
-  <si>
-    <t>6-11-2020</t>
-  </si>
-  <si>
-    <t>9:48:8</t>
-  </si>
-  <si>
-    <t>13:4:7</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hnl90FN77MUMESRh7fupOFDgMPy5zZzcLfCt5ciEZOCd9e3YQaid7InJKZyN6KXRBPXp9dSFPaXN6</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hVGe6pSmXCWhYTyPrruB2P2QKBwUvYQ8gICkWXS1JX1p8Lxk5ZC5DDS0dA1t2e0htMyoWDXwbXlEh</t>
-  </si>
-  <si>
-    <t>13:12:40</t>
+    <t>7-11-2020</t>
+  </si>
+  <si>
+    <t>11:53:18</t>
+  </si>
+  <si>
+    <t>['RA010']</t>
+  </si>
+  <si>
+    <t>['CJ010']</t>
   </si>
   <si>
     <t>['']</t>
+  </si>
+  <si>
+    <t>['CH010', 'CK010', 'CN010']</t>
   </si>
 </sst>
 </file>
@@ -498,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,46 +631,46 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -612,52 +681,157 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
     <hyperlink ref="M3" r:id="rId2"/>
+    <hyperlink ref="M4" r:id="rId3"/>
+    <hyperlink ref="M5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/Customers.xlsx
+++ b/static/excel/Customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -64,139 +64,52 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Piyanan onnork</t>
+    <t>Channel</t>
   </si>
   <si>
     <t>ฐิติพัฒน์ ชัยแก้ว</t>
   </si>
   <si>
-    <t>Rungravee</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>RealEstate</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
-    <t>Anasara development</t>
-  </si>
-  <si>
     <t>Auto Transfer Service</t>
   </si>
   <si>
-    <t>Vn.stell</t>
-  </si>
-  <si>
-    <t>Test Co,.ltd</t>
-  </si>
-  <si>
-    <t>0985858221</t>
-  </si>
-  <si>
     <t>0869129962</t>
   </si>
   <si>
-    <t>0874586669</t>
-  </si>
-  <si>
-    <t>024567899</t>
-  </si>
-  <si>
-    <t>asr.officework@gmail.com</t>
-  </si>
-  <si>
     <t>thitiphat.eng@gmail.com</t>
   </si>
   <si>
-    <t>fonzf16@gmail.com</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>koyotyboy1@gmail.com</t>
-  </si>
-  <si>
     <t>garfield00536@hotmail.com</t>
   </si>
   <si>
-    <t>tongta87@gmail.com</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>รับเหมาก่อสร้าง ต้องการนำโปรแกรมวางแผนงานมาใช้ด้วย</t>
-  </si>
-  <si>
-    <t>Koy_Anasara</t>
-  </si>
-  <si>
     <t>David Philva</t>
   </si>
   <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>🐥กุ๊ก🐣</t>
-  </si>
-  <si>
     <t>5-11-2020</t>
   </si>
   <si>
-    <t>6-11-2020</t>
-  </si>
-  <si>
-    <t>9:48:8</t>
-  </si>
-  <si>
     <t>14:21:55</t>
   </si>
   <si>
-    <t>2:30:59</t>
-  </si>
-  <si>
-    <t>15:39:5</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hnl90FN77MUMESRh7fupOFDgMPy5zZzcLfCt5ciEZOCd9e3YQaid7InJKZyN6KXRBPXp9dSFPaXN6</t>
-  </si>
-  <si>
     <t>https://profile.line-scdn.net/0h82Bp0NEsZx1_CUw7KgQYSkNMaXAIJ2FVB2YqKVleMHgGaXJKQTwvLgkMOCUCMHRJQG9_eF9dMS9X</t>
   </si>
   <si>
-    <t>https://profile.line-scdn.net/0htks5EQzpK0ROTAKghltUE3IJJSk5Yi0MNi8zdWxKfXdnf20SdyM2IThIISRnemUWcShid2wZcXwz</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hD2HcDFhSGx11GjLZjuhkSklfFXACNB1VDXpdLFIfEXlQegkZHC4AKQcYQH4PIllNHHRVKABNQi5a</t>
-  </si>
-  <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>7-11-2020</t>
-  </si>
-  <si>
-    <t>11:53:18</t>
-  </si>
-  <si>
-    <t>['RA010']</t>
-  </si>
-  <si>
-    <t>['CJ010']</t>
-  </si>
-  <si>
-    <t>['']</t>
-  </si>
-  <si>
-    <t>['CH010', 'CK010', 'CN010']</t>
+    <t>tongta</t>
+  </si>
+  <si>
+    <t>14:38:35</t>
+  </si>
+  <si>
+    <t>['CF010', 'CN010']</t>
+  </si>
+  <si>
+    <t>LINE</t>
   </si>
 </sst>
 </file>
@@ -567,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,216 +535,66 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M3" r:id="rId2"/>
-    <hyperlink ref="M4" r:id="rId3"/>
-    <hyperlink ref="M5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/excel/Customers.xlsx
+++ b/static/excel/Customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -67,46 +67,46 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>ฐิติพัฒน์ ชัยแก้ว</t>
+    <t>Test</t>
   </si>
   <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>Auto Transfer Service</t>
-  </si>
-  <si>
-    <t>0869129962</t>
-  </si>
-  <si>
-    <t>thitiphat.eng@gmail.com</t>
-  </si>
-  <si>
-    <t>garfield00536@hotmail.com</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>David Philva</t>
-  </si>
-  <si>
-    <t>5-11-2020</t>
-  </si>
-  <si>
-    <t>14:21:55</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0h82Bp0NEsZx1_CUw7KgQYSkNMaXAIJ2FVB2YqKVleMHgGaXJKQTwvLgkMOCUCMHRJQG9_eF9dMS9X</t>
-  </si>
-  <si>
-    <t>tongta</t>
-  </si>
-  <si>
-    <t>14:38:35</t>
-  </si>
-  <si>
-    <t>['CF010', 'CN010']</t>
+    <t>RealEstate</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>g@g.com</t>
+  </si>
+  <si>
+    <t>g@c.com</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>17-11-2020</t>
+  </si>
+  <si>
+    <t>9:18:12</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hD2HcR5YzGx11GjLLI5hkSklfFXACNB1VDXpdLFIfEXlQegkZHC4AKQcYQH4PIllNHHRVKABNQi5a</t>
+  </si>
+  <si>
+    <t>wera</t>
+  </si>
+  <si>
+    <t>10:14:48</t>
+  </si>
+  <si>
+    <t>['CP010', 'CE010', 'CN010']</t>
   </si>
   <si>
     <t>LINE</t>
@@ -549,20 +549,23 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/static/excel/Customers.xlsx
+++ b/static/excel/Customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -67,49 +67,91 @@
     <t>Channel</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>ฐิติพัฒน์ ชัยแก้ว</t>
+  </si>
+  <si>
+    <t>จินตนา เต็มเปี่ยมวัชโรทัย</t>
   </si>
   <si>
     <t>Construction</t>
   </si>
   <si>
-    <t>RealEstate</t>
-  </si>
-  <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>g@g.com</t>
-  </si>
-  <si>
-    <t>g@c.com</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
-    <t>17-11-2020</t>
-  </si>
-  <si>
-    <t>9:18:12</t>
-  </si>
-  <si>
-    <t>https://profile.line-scdn.net/0hD2HcR5YzGx11GjLLI5hkSklfFXACNB1VDXpdLFIfEXlQegkZHC4AKQcYQH4PIllNHHRVKABNQi5a</t>
-  </si>
-  <si>
-    <t>wera</t>
-  </si>
-  <si>
-    <t>10:14:48</t>
-  </si>
-  <si>
-    <t>['CP010', 'CE010', 'CN010']</t>
+    <t>Project Planning</t>
+  </si>
+  <si>
+    <t>Auto Transfer Service</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>0869129962</t>
+  </si>
+  <si>
+    <t>0879092627</t>
+  </si>
+  <si>
+    <t>thitiphat.eng@gmail.com</t>
+  </si>
+  <si>
+    <t>jintana.t@thaimp.co.th</t>
+  </si>
+  <si>
+    <t>garfield00536@hotmail.com</t>
+  </si>
+  <si>
+    <t>tempiam079@gmail.com</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>David Philva</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>5-11-2020</t>
+  </si>
+  <si>
+    <t>13-11-2020</t>
+  </si>
+  <si>
+    <t>14:21:55</t>
+  </si>
+  <si>
+    <t>15:42:50</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0h82Bp0NEsZx1_CUw7KgQYSkNMaXAIJ2FVB2YqKVleMHgGaXJKQTwvLgkMOCUCMHRJQG9_eF9dMS9X</t>
+  </si>
+  <si>
+    <t>https://profile.line-scdn.net/0hF5C-E3GTGRp-VDOT6qRmTUIRF3cJeh9SBjFQKwtVRCsHMFgZQ2YGeV0BRn9RNloeQDIDfF1WQ39X</t>
+  </si>
+  <si>
+    <t>tongta</t>
+  </si>
+  <si>
+    <t>14-11-2020</t>
+  </si>
+  <si>
+    <t>14:38:35</t>
+  </si>
+  <si>
+    <t>14:37:36</t>
+  </si>
+  <si>
+    <t>['CF010', 'CN010']</t>
+  </si>
+  <si>
+    <t>['CN010']</t>
   </si>
   <si>
     <t>LINE</t>
+  </si>
+  <si>
+    <t>event Impact</t>
   </si>
 </sst>
 </file>
@@ -480,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,57 +589,108 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="J3" t="s">
         <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
